--- a/ShortversionILS/D2SMRC.xlsx
+++ b/ShortversionILS/D2SMRC.xlsx
@@ -431,7 +431,7 @@
   <dimension ref="A1:N260"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -522,8 +522,8 @@
         <v>7</v>
       </c>
       <c r="M2">
-        <f>IF(L2&lt;4,IF(L2&lt;2,IF(L2&lt;-1,IF(L2&lt;-3,0,1),2),3),4)</f>
-        <v>4</v>
+        <f>IF(L2&lt;9,IF(L2&lt;5,IF(L2&lt;-3,IF(L2&lt;-7,0,1),2),3),4)</f>
+        <v>3</v>
       </c>
       <c r="N2">
         <f>IF(M2&lt;3,IF(M2&lt;2,0,1),2)</f>
@@ -569,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="1">IF(L3&lt;4,IF(L3&lt;2,IF(L3&lt;-1,IF(L3&lt;-3,0,1),2),3),4)</f>
+        <f t="shared" ref="M3:M66" si="1">IF(L3&lt;9,IF(L3&lt;5,IF(L3&lt;-3,IF(L3&lt;-7,0,1),2),3),4)</f>
         <v>2</v>
       </c>
       <c r="N3">
@@ -664,11 +664,11 @@
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -711,7 +711,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6">
         <f t="shared" si="2"/>
@@ -758,7 +758,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7">
         <f t="shared" si="2"/>
@@ -805,11 +805,11 @@
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -852,7 +852,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9">
         <f t="shared" si="2"/>
@@ -899,7 +899,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
@@ -993,7 +993,7 @@
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <f t="shared" si="2"/>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <f t="shared" si="2"/>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19">
         <f t="shared" si="2"/>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="M20">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20">
         <f t="shared" si="2"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N21">
         <f t="shared" si="2"/>
@@ -1463,11 +1463,11 @@
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="M25">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25">
         <f t="shared" si="2"/>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26">
         <f t="shared" si="2"/>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="M27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <f t="shared" si="2"/>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28">
         <f t="shared" si="2"/>
@@ -1792,11 +1792,11 @@
       </c>
       <c r="M29">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -1933,11 +1933,11 @@
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="M34">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34">
         <f t="shared" si="2"/>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="M36">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36">
         <f t="shared" si="2"/>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="M38">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N38">
         <f t="shared" si="2"/>
@@ -2403,11 +2403,11 @@
       </c>
       <c r="M42">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N42">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -2591,11 +2591,11 @@
       </c>
       <c r="M46">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N46">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="M48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <f t="shared" si="2"/>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="M49">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49">
         <f t="shared" si="2"/>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="M51">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N51">
         <f t="shared" si="2"/>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="M52">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52">
         <f t="shared" si="2"/>
@@ -2967,11 +2967,11 @@
       </c>
       <c r="M54">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -3014,11 +3014,11 @@
       </c>
       <c r="M55">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N55">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
@@ -3108,11 +3108,11 @@
       </c>
       <c r="M57">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N57">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
@@ -3155,11 +3155,11 @@
       </c>
       <c r="M58">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N58">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="M59">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N59">
         <f t="shared" si="2"/>
@@ -3249,11 +3249,11 @@
       </c>
       <c r="M60">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N60">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
@@ -3296,11 +3296,11 @@
       </c>
       <c r="M61">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N61">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
@@ -3437,11 +3437,11 @@
       </c>
       <c r="M64">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N64">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
@@ -3531,11 +3531,11 @@
       </c>
       <c r="M66">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N66">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -3577,8 +3577,8 @@
         <v>5</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M130" si="4">IF(L67&lt;4,IF(L67&lt;2,IF(L67&lt;-1,IF(L67&lt;-3,0,1),2),3),4)</f>
-        <v>4</v>
+        <f t="shared" ref="M67:M130" si="4">IF(L67&lt;9,IF(L67&lt;5,IF(L67&lt;-3,IF(L67&lt;-7,0,1),2),3),4)</f>
+        <v>3</v>
       </c>
       <c r="N67">
         <f t="shared" ref="N67:N130" si="5">IF(M67&lt;3,IF(M67&lt;2,0,1),2)</f>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="M73">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N73">
         <f t="shared" si="5"/>
@@ -3907,11 +3907,11 @@
       </c>
       <c r="M74">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N74">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="M77">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N77">
         <f t="shared" si="5"/>
@@ -4095,11 +4095,11 @@
       </c>
       <c r="M78">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N78">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
@@ -4189,11 +4189,11 @@
       </c>
       <c r="M80">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N80">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="M81">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N81">
         <f t="shared" si="5"/>
@@ -4283,11 +4283,11 @@
       </c>
       <c r="M82">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N82">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="M83">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N83">
         <f t="shared" si="5"/>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="M84">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84">
         <f t="shared" si="5"/>
@@ -4471,7 +4471,7 @@
       </c>
       <c r="M86">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N86">
         <f t="shared" si="5"/>
@@ -4565,7 +4565,7 @@
       </c>
       <c r="M88">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N88">
         <f t="shared" si="5"/>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="M90">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N90">
         <f t="shared" si="5"/>
@@ -4706,7 +4706,7 @@
       </c>
       <c r="M91">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N91">
         <f t="shared" si="5"/>
@@ -4894,7 +4894,7 @@
       </c>
       <c r="M95">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N95">
         <f t="shared" si="5"/>
@@ -4941,11 +4941,11 @@
       </c>
       <c r="M96">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N96">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
@@ -5035,11 +5035,11 @@
       </c>
       <c r="M98">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N98">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
@@ -5082,7 +5082,7 @@
       </c>
       <c r="M99">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N99">
         <f t="shared" si="5"/>
@@ -5129,11 +5129,11 @@
       </c>
       <c r="M100">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N100">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="M101">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N101">
         <f t="shared" si="5"/>
@@ -5223,11 +5223,11 @@
       </c>
       <c r="M102">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N102">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
@@ -5270,11 +5270,11 @@
       </c>
       <c r="M103">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N103">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="M104">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N104">
         <f t="shared" si="5"/>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="M106">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N106">
         <f t="shared" si="5"/>
@@ -5505,7 +5505,7 @@
       </c>
       <c r="M108">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N108">
         <f t="shared" si="5"/>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="M109">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N109">
         <f t="shared" si="5"/>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="M110">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N110">
         <f t="shared" si="5"/>
@@ -5646,7 +5646,7 @@
       </c>
       <c r="M111">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N111">
         <f t="shared" si="5"/>
@@ -5693,11 +5693,11 @@
       </c>
       <c r="M112">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N112">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="M116">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N116">
         <f t="shared" si="5"/>
@@ -5928,11 +5928,11 @@
       </c>
       <c r="M117">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N117">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
@@ -5975,11 +5975,11 @@
       </c>
       <c r="M118">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N118">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
@@ -6116,11 +6116,11 @@
       </c>
       <c r="M121">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N121">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
@@ -6257,11 +6257,11 @@
       </c>
       <c r="M124">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N124">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -6304,7 +6304,7 @@
       </c>
       <c r="M125">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N125">
         <f t="shared" si="5"/>
@@ -6351,11 +6351,11 @@
       </c>
       <c r="M126">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N126">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="M127">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N127">
         <f t="shared" si="5"/>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="M130">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N130">
         <f t="shared" si="5"/>
@@ -6585,7 +6585,7 @@
         <v>9</v>
       </c>
       <c r="M131">
-        <f t="shared" ref="M131:M194" si="7">IF(L131&lt;4,IF(L131&lt;2,IF(L131&lt;-1,IF(L131&lt;-3,0,1),2),3),4)</f>
+        <f t="shared" ref="M131:M194" si="7">IF(L131&lt;9,IF(L131&lt;5,IF(L131&lt;-3,IF(L131&lt;-7,0,1),2),3),4)</f>
         <v>4</v>
       </c>
       <c r="N131">
@@ -6727,7 +6727,7 @@
       </c>
       <c r="M134">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N134">
         <f t="shared" si="8"/>
@@ -6774,7 +6774,7 @@
       </c>
       <c r="M135">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135">
         <f t="shared" si="8"/>
@@ -6821,7 +6821,7 @@
       </c>
       <c r="M136">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N136">
         <f t="shared" si="8"/>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="M137">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N137">
         <f t="shared" si="8"/>
@@ -6915,11 +6915,11 @@
       </c>
       <c r="M138">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N138">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -6962,7 +6962,7 @@
       </c>
       <c r="M139">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N139">
         <f t="shared" si="8"/>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="M140">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N140">
         <f t="shared" si="8"/>
@@ -7150,7 +7150,7 @@
       </c>
       <c r="M143">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143">
         <f t="shared" si="8"/>
@@ -7244,7 +7244,7 @@
       </c>
       <c r="M145">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N145">
         <f t="shared" si="8"/>
@@ -7432,7 +7432,7 @@
       </c>
       <c r="M149">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N149">
         <f t="shared" si="8"/>
@@ -7526,7 +7526,7 @@
       </c>
       <c r="M151">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N151">
         <f t="shared" si="8"/>
@@ -7573,7 +7573,7 @@
       </c>
       <c r="M152">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N152">
         <f t="shared" si="8"/>
@@ -7620,7 +7620,7 @@
       </c>
       <c r="M153">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N153">
         <f t="shared" si="8"/>
@@ -7667,11 +7667,11 @@
       </c>
       <c r="M154">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N154">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
@@ -7714,7 +7714,7 @@
       </c>
       <c r="M155">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N155">
         <f t="shared" si="8"/>
@@ -7808,11 +7808,11 @@
       </c>
       <c r="M157">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N157">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
@@ -7855,7 +7855,7 @@
       </c>
       <c r="M158">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N158">
         <f t="shared" si="8"/>
@@ -7949,11 +7949,11 @@
       </c>
       <c r="M160">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N160">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="M161">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N161">
         <f t="shared" si="8"/>
@@ -8043,7 +8043,7 @@
       </c>
       <c r="M162">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N162">
         <f t="shared" si="8"/>
@@ -8137,11 +8137,11 @@
       </c>
       <c r="M164">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N164">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
@@ -8184,11 +8184,11 @@
       </c>
       <c r="M165">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N165">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="M166">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N166">
         <f t="shared" si="8"/>
@@ -8278,11 +8278,11 @@
       </c>
       <c r="M167">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N167">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="M168">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N168">
         <f t="shared" si="8"/>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="M169">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N169">
         <f t="shared" si="8"/>
@@ -8466,7 +8466,7 @@
       </c>
       <c r="M171">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N171">
         <f t="shared" si="8"/>
@@ -8560,11 +8560,11 @@
       </c>
       <c r="M173">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N173">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
@@ -8654,7 +8654,7 @@
       </c>
       <c r="M175">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N175">
         <f t="shared" si="8"/>
@@ -8748,7 +8748,7 @@
       </c>
       <c r="M177">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N177">
         <f t="shared" si="8"/>
@@ -8795,11 +8795,11 @@
       </c>
       <c r="M178">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N178">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
@@ -8842,7 +8842,7 @@
       </c>
       <c r="M179">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N179">
         <f t="shared" si="8"/>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="M180">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N180">
         <f t="shared" si="8"/>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="M181">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N181">
         <f t="shared" si="8"/>
@@ -8983,11 +8983,11 @@
       </c>
       <c r="M182">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N182">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="M183">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N183">
         <f t="shared" si="8"/>
@@ -9265,7 +9265,7 @@
       </c>
       <c r="M188">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N188">
         <f t="shared" si="8"/>
@@ -9312,7 +9312,7 @@
       </c>
       <c r="M189">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N189">
         <f t="shared" si="8"/>
@@ -9359,7 +9359,7 @@
       </c>
       <c r="M190">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N190">
         <f t="shared" si="8"/>
@@ -9406,11 +9406,11 @@
       </c>
       <c r="M191">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N191">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
@@ -9453,7 +9453,7 @@
       </c>
       <c r="M192">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N192">
         <f t="shared" si="8"/>
@@ -9547,7 +9547,7 @@
       </c>
       <c r="M194">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N194">
         <f t="shared" si="8"/>
@@ -9593,12 +9593,12 @@
         <v>-3</v>
       </c>
       <c r="M195">
-        <f t="shared" ref="M195:M258" si="10">IF(L195&lt;4,IF(L195&lt;2,IF(L195&lt;-1,IF(L195&lt;-3,0,1),2),3),4)</f>
-        <v>1</v>
+        <f t="shared" ref="M195:M258" si="10">IF(L195&lt;9,IF(L195&lt;5,IF(L195&lt;-3,IF(L195&lt;-7,0,1),2),3),4)</f>
+        <v>2</v>
       </c>
       <c r="N195">
         <f t="shared" ref="N195:N258" si="11">IF(M195&lt;3,IF(M195&lt;2,0,1),2)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="M196">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N196">
         <f t="shared" si="11"/>
@@ -9688,7 +9688,7 @@
       </c>
       <c r="M197">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N197">
         <f t="shared" si="11"/>
@@ -9735,7 +9735,7 @@
       </c>
       <c r="M198">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N198">
         <f t="shared" si="11"/>
@@ -9782,11 +9782,11 @@
       </c>
       <c r="M199">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N199">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
@@ -9876,11 +9876,11 @@
       </c>
       <c r="M201">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N201">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
@@ -10017,11 +10017,11 @@
       </c>
       <c r="M204">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N204">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="M205">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N205">
         <f t="shared" si="11"/>
@@ -10111,7 +10111,7 @@
       </c>
       <c r="M206">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N206">
         <f t="shared" si="11"/>
@@ -10158,7 +10158,7 @@
       </c>
       <c r="M207">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N207">
         <f t="shared" si="11"/>
@@ -10252,7 +10252,7 @@
       </c>
       <c r="M209">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N209">
         <f t="shared" si="11"/>
@@ -10299,7 +10299,7 @@
       </c>
       <c r="M210">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N210">
         <f t="shared" si="11"/>
@@ -10346,7 +10346,7 @@
       </c>
       <c r="M211">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N211">
         <f t="shared" si="11"/>
@@ -10487,11 +10487,11 @@
       </c>
       <c r="M214">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N214">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
@@ -10628,7 +10628,7 @@
       </c>
       <c r="M217">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N217">
         <f t="shared" si="11"/>
@@ -10722,11 +10722,11 @@
       </c>
       <c r="M219">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N219">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="M221">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N221">
         <f t="shared" si="11"/>
@@ -10863,7 +10863,7 @@
       </c>
       <c r="M222">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N222">
         <f t="shared" si="11"/>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="M224">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N224">
         <f t="shared" si="11"/>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="M226">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N226">
         <f t="shared" si="11"/>
@@ -11098,7 +11098,7 @@
       </c>
       <c r="M227">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N227">
         <f t="shared" si="11"/>
@@ -11145,11 +11145,11 @@
       </c>
       <c r="M228">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N228">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="M230">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N230">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
@@ -11286,11 +11286,11 @@
       </c>
       <c r="M231">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N231">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
@@ -11474,7 +11474,7 @@
       </c>
       <c r="M235">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N235">
         <f t="shared" si="11"/>
@@ -11521,11 +11521,11 @@
       </c>
       <c r="M236">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N236">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
@@ -11568,11 +11568,11 @@
       </c>
       <c r="M237">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N237">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
@@ -11615,7 +11615,7 @@
       </c>
       <c r="M238">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N238">
         <f t="shared" si="11"/>
@@ -11662,7 +11662,7 @@
       </c>
       <c r="M239">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N239">
         <f t="shared" si="11"/>
@@ -11709,7 +11709,7 @@
       </c>
       <c r="M240">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N240">
         <f t="shared" si="11"/>
@@ -11756,7 +11756,7 @@
       </c>
       <c r="M241">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N241">
         <f t="shared" si="11"/>
@@ -11803,7 +11803,7 @@
       </c>
       <c r="M242">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N242">
         <f t="shared" si="11"/>
@@ -12085,7 +12085,7 @@
       </c>
       <c r="M248">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N248">
         <f t="shared" si="11"/>
@@ -12179,11 +12179,11 @@
       </c>
       <c r="M250">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N250">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
@@ -12226,7 +12226,7 @@
       </c>
       <c r="M251">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N251">
         <f t="shared" si="11"/>
@@ -12320,7 +12320,7 @@
       </c>
       <c r="M253">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N253">
         <f t="shared" si="11"/>
@@ -12367,11 +12367,11 @@
       </c>
       <c r="M254">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N254">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
@@ -12555,11 +12555,11 @@
       </c>
       <c r="M258">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N258">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
@@ -12601,8 +12601,8 @@
         <v>7</v>
       </c>
       <c r="M259">
-        <f t="shared" ref="M259:M260" si="13">IF(L259&lt;4,IF(L259&lt;2,IF(L259&lt;-1,IF(L259&lt;-3,0,1),2),3),4)</f>
-        <v>4</v>
+        <f t="shared" ref="M259:M260" si="13">IF(L259&lt;9,IF(L259&lt;5,IF(L259&lt;-3,IF(L259&lt;-7,0,1),2),3),4)</f>
+        <v>3</v>
       </c>
       <c r="N259">
         <f t="shared" ref="N259:N260" si="14">IF(M259&lt;3,IF(M259&lt;2,0,1),2)</f>
@@ -12649,7 +12649,7 @@
       </c>
       <c r="M260">
         <f t="shared" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N260">
         <f t="shared" si="14"/>
